--- a/data/analyses/analysed_carpentry_workshops_UK_2020-12-03.xlsx
+++ b/data/analyses/analysed_carpentry_workshops_UK_2020-12-03.xlsx
@@ -6164,7 +6164,7 @@
     <t>['Chemistry', 'Organismal biology (ecology, botany, zoology, microbiology)', 'Genetics, genomics, bioinformatics']</t>
   </si>
   <si>
-    <t>Data in sheet 'carpentry_workshops' contains Carpentry workshop data from data/analyses/analysed_carpentry_workshops_UK_2020-12-03.xlsx. Analyses performed on 2020-12-03 11:01.</t>
+    <t>Data in sheet 'carpentry_workshops' contains Carpentry workshop data from data/analyses/analysed_carpentry_workshops_UK_2020-12-03.xlsx. Analyses performed on 2020-12-03 11:40.</t>
   </si>
   <si>
     <t>number_of_workshops</t>

--- a/data/analyses/analysed_carpentry_workshops_UK_2020-12-03.xlsx
+++ b/data/analyses/analysed_carpentry_workshops_UK_2020-12-03.xlsx
@@ -6164,7 +6164,7 @@
     <t>['Chemistry', 'Organismal biology (ecology, botany, zoology, microbiology)', 'Genetics, genomics, bioinformatics']</t>
   </si>
   <si>
-    <t>Data in sheet 'carpentry_workshops' contains Carpentry workshop data from data/analyses/analysed_carpentry_workshops_UK_2020-12-03.xlsx. Analyses performed on 2020-12-03 11:40.</t>
+    <t>Data in sheet 'carpentry_workshops' contains Carpentry workshop data from data/analyses/analysed_carpentry_workshops_UK_2020-12-03.xlsx. Analyses performed on 2020-12-03 11:43.</t>
   </si>
   <si>
     <t>number_of_workshops</t>

--- a/data/analyses/analysed_carpentry_workshops_UK_2020-12-03.xlsx
+++ b/data/analyses/analysed_carpentry_workshops_UK_2020-12-03.xlsx
@@ -6164,7 +6164,7 @@
     <t>['Chemistry', 'Organismal biology (ecology, botany, zoology, microbiology)', 'Genetics, genomics, bioinformatics']</t>
   </si>
   <si>
-    <t>Data in sheet 'carpentry_workshops' contains Carpentry workshop data from data/analyses/analysed_carpentry_workshops_UK_2020-12-03.xlsx. Analyses performed on 2020-12-03 11:43.</t>
+    <t>Data in sheet 'carpentry_workshops' contains Carpentry workshop data from data/analyses/analysed_carpentry_workshops_UK_2020-12-03.xlsx. Analyses performed on 2020-12-03 11:49.</t>
   </si>
   <si>
     <t>number_of_workshops</t>

--- a/data/analyses/analysed_carpentry_workshops_UK_2020-12-03.xlsx
+++ b/data/analyses/analysed_carpentry_workshops_UK_2020-12-03.xlsx
@@ -6164,7 +6164,7 @@
     <t>['Chemistry', 'Organismal biology (ecology, botany, zoology, microbiology)', 'Genetics, genomics, bioinformatics']</t>
   </si>
   <si>
-    <t>Data in sheet 'carpentry_workshops' contains Carpentry workshop data from data/analyses/analysed_carpentry_workshops_UK_2020-12-03.xlsx. Analyses performed on 2020-12-03 11:49.</t>
+    <t>Data in sheet 'carpentry_workshops' contains Carpentry workshop data from data/analyses/analysed_carpentry_workshops_UK_2020-12-03.xlsx. Analyses performed on 2020-12-03 11:52.</t>
   </si>
   <si>
     <t>number_of_workshops</t>
